--- a/PanelCreator/src/Creator/textFiles/alerts.xlsx
+++ b/PanelCreator/src/Creator/textFiles/alerts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Alert Name</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Io Name</t>
   </si>
   <si>
-    <t>User Groups</t>
-  </si>
-  <si>
     <t>Alert template ID</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
   </si>
   <si>
     <t>Comp Amps `%rackname` `%sgname` `%compname`</t>
-  </si>
-  <si>
-    <t>1,`%StoreAdminGroup`,`%StoreGroup`</t>
   </si>
   <si>
     <t>Comp Discharge Temp `%rackname` `%sgname` `%compname`</t>
@@ -126,10 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,176 +429,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="2">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/PanelCreator/src/Creator/textFiles/alerts.xlsx
+++ b/PanelCreator/src/Creator/textFiles/alerts.xlsx
@@ -432,14 +432,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -497,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -519,7 +519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -530,7 +530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -552,7 +552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
